--- a/insert/dataToInsert/promotions.xlsx
+++ b/insert/dataToInsert/promotions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\dataToInsert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801AA5B-6539-44CC-9969-DB92201B6FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BB609-B750-4C22-AAC2-BE271890AB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>typeProduit</t>
-  </si>
-  <si>
-    <t>perle</t>
   </si>
   <si>
     <t>PROMOTIONS</t>
@@ -174,57 +171,6 @@
   </si>
   <si>
     <t>promo de debut mai catalogue 2022</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2023</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2024</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2025</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2026</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2027</t>
-  </si>
-  <si>
-    <t>Perle de Lune</t>
-  </si>
-  <si>
-    <t>Perle d eau douce</t>
-  </si>
-  <si>
-    <t>Perle de Tahiti</t>
-  </si>
-  <si>
-    <t>Perle rose</t>
-  </si>
-  <si>
-    <t>Perle Noire</t>
-  </si>
-  <si>
-    <t>Perle Blanche</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2028</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2029</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2030</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2031</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2032</t>
-  </si>
-  <si>
-    <t>promo de debut mai catalogue 2033</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1038,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,344 +1054,230 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H4">
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H5">
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <v>12</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
